--- a/biology/Zoologie/Brissus_latecarinatus/Brissus_latecarinatus.xlsx
+++ b/biology/Zoologie/Brissus_latecarinatus/Brissus_latecarinatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brissus latecarinatus est une espèce d'oursin irrégulier tropical de la famille des Brissidae (ordre des Spatangoida). 
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des oursins irréguliers dont la bouche et l'anus se sont déplacés de leurs pôles pour former un « avant » et un « arrière ». La bouche se situe donc dans le premier quart de la face orale, et l'anus se trouve à l'opposé, tourné vers l'arrière. La coquille (appelée « test ») s'est également allongée dans ce sens antéro-postérieur, pour devenir ovoïde (légèrement plus pointu du côté postérieur). La taille maximale est de 13 cm de long[2]. Cet oursin n'a pas de dépression centrale antérieure, contrairement à beaucoup d'autres oursins irréguliers. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des oursins irréguliers dont la bouche et l'anus se sont déplacés de leurs pôles pour former un « avant » et un « arrière ». La bouche se situe donc dans le premier quart de la face orale, et l'anus se trouve à l'opposé, tourné vers l'arrière. La coquille (appelée « test ») s'est également allongée dans ce sens antéro-postérieur, pour devenir ovoïde (légèrement plus pointu du côté postérieur). La taille maximale est de 13 cm de long. Cet oursin n'a pas de dépression centrale antérieure, contrairement à beaucoup d'autres oursins irréguliers. 
 Quand l'animal est vivant, tout le corps est couvert d'un duvet et mobile de piquants fins et courts, plus ou moins uniformément beiges à brunes. 
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oursin habite tout l'Indo-Pacifique tropical, de l'Afrique de l'est à Hawaii[1]. Il vit enfoui dans le sédiment (raison pour laquelle il est rarement observé vivant), entre la surface et 45 m de profondeur[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oursin habite tout l'Indo-Pacifique tropical, de l'Afrique de l'est à Hawaii. Il vit enfoui dans le sédiment (raison pour laquelle il est rarement observé vivant), entre la surface et 45 m de profondeur. 
 </t>
         </is>
       </c>
